--- a/report/reliability/comb/Instituto de Psicologia - IP-Presencial.xlsx
+++ b/report/reliability/comb/Instituto de Psicologia - IP-Presencial.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7808778590507452</v>
+        <v>0.746664141095256</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8010420909614387</v>
+        <v>0.7825639060089582</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9076155890630433</v>
+        <v>0.9054854095533091</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.25122559064113137</v>
+        <v>0.21682276491402824</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>4.026188729226059</v>
+        <v>3.5990524463762665</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.03210432270186058</v>
+        <v>0.03515337127140251</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5047169811320753</v>
+        <v>1.9121915820029027</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7830741033980109</v>
+        <v>0.6585107200869701</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.25545928350103786</v>
+        <v>0.20062722111026982</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7529253746996684</v>
+        <v>0.7448333790095719</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7695782294498648</v>
+        <v>0.7628028573943583</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8865285991992834</v>
+        <v>0.8988457952649164</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2329078462864467</v>
+        <v>0.21135140763933183</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.339867702658849</v>
+        <v>3.215902388261803</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03624710724238582</v>
+        <v>0.03607615755490195</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.06095019744461897</v>
+        <v>0.08271973516519693</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.24008594395278016</v>
+        <v>0.21488227560850748</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7551138275474202</v>
+        <v>0.719605981046301</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7738075847270895</v>
+        <v>0.7551876150760245</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8854674279443293</v>
+        <v>0.8883708567838225</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.23722427269796562</v>
+        <v>0.20449516785307773</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.42101473116797</v>
+        <v>3.084760664010288</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03587216452818124</v>
+        <v>0.038808517349988386</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06038495221159719</v>
+        <v>0.07962507288180604</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2560699767017332</v>
+        <v>0.18406380088855073</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7570065563635396</v>
+        <v>0.7252214162368579</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7699580456417834</v>
+        <v>0.7601511172360362</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8895377161176009</v>
+        <v>0.8913487464320475</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2332909605807557</v>
+        <v>0.20892813634711016</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.3470331435405036</v>
+        <v>3.1692918827731376</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.03572716347054396</v>
+        <v>0.03797089886392245</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.06052124729722026</v>
+        <v>0.08015871557418781</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2514086478496371</v>
+        <v>0.20255625590113874</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7573332468393663</v>
+        <v>0.7322358376980076</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7759640466261846</v>
+        <v>0.7619612772950813</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8886750789996871</v>
+        <v>0.8897282276696902</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.23946850296917943</v>
+        <v>0.2105781043679675</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.4635692840400853</v>
+        <v>3.200997168177703</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03563348406975369</v>
+        <v>0.03779172257201931</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.059418650120527744</v>
+        <v>0.0656942037518532</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.2548485903003425</v>
+        <v>0.20062722111026982</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7587554731286626</v>
+        <v>0.7101517600082448</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7865211461539312</v>
+        <v>0.758969342910336</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8738427306707245</v>
+        <v>0.8857758868952388</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.250900861893589</v>
+        <v>0.20786065365123904</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.6843047073929873</v>
+        <v>3.148849827132148</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03566070668763192</v>
+        <v>0.04071158083884027</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.058256011486458106</v>
+        <v>0.06625844240213068</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2600076762319465</v>
+        <v>0.18406380088855073</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7576612799630039</v>
+        <v>0.707240250719112</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7858733905426811</v>
+        <v>0.7571360933533051</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8728896130482785</v>
+        <v>0.8843395372202929</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.25017727466652556</v>
+        <v>0.20621965960474514</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.670134190862094</v>
+        <v>3.117532381848512</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.03582575640482184</v>
+        <v>0.04117171892016066</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05782370854406658</v>
+        <v>0.06583387697256848</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2560699767017332</v>
+        <v>0.18406380088855073</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.797120423058489</v>
+        <v>0.7488716010670555</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8187153804701249</v>
+        <v>0.7933665475933895</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9011079283353318</v>
+        <v>0.9033555943870837</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2910629745197176</v>
+        <v>0.2423997281050097</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.516187763712647</v>
+        <v>3.8394874515875306</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.029526410776466828</v>
+        <v>0.03537574890290707</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.0535835579662</v>
+        <v>0.0697345253106234</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2761840767157532</v>
+        <v>0.23230233771246522</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8030711342326354</v>
+        <v>0.7585926420788757</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8161475665660897</v>
+        <v>0.7881949690663513</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8997260262937582</v>
+        <v>0.8985193770164939</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.28752530203554316</v>
+        <v>0.23670546871336745</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.439144760406293</v>
+        <v>3.72132316967139</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.028251725749656176</v>
+        <v>0.03227197276973224</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.0548468602235468</v>
+        <v>0.07117385222308567</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2761840767157532</v>
+        <v>0.23230233771246522</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7747229123489052</v>
+        <v>0.768233528543781</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7991809779833325</v>
+        <v>0.7896064136531091</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9083010945132836</v>
+        <v>0.9028863021350215</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.26566836519369186</v>
+        <v>0.23824017063149627</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.9796079572432257</v>
+        <v>3.752996597297548</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.0335407499375076</v>
+        <v>0.03039632747365528</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.0659897472327797</v>
+        <v>0.07163936972739175</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2560699767017332</v>
+        <v>0.23230233771246522</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7536842543357131</v>
+        <v>0.7285027828009482</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.778008468895328</v>
+        <v>0.7719232625395152</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8998609688532517</v>
+        <v>0.9049646685853872</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24162389185398023</v>
+        <v>0.21999360412884097</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.504676349695909</v>
+        <v>3.3844892343448842</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.036325683665604167</v>
+        <v>0.0381583491614333</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.07027702198930694</v>
+        <v>0.08401825176508465</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2514086478496371</v>
+        <v>0.20062722111026982</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7557203310308087</v>
+        <v>0.7144111845303499</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7790155346076928</v>
+        <v>0.7619965967557001</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8904828320443318</v>
+        <v>0.9001024263758135</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.24269571228488576</v>
+        <v>0.21061047883020262</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.525204965085347</v>
+        <v>3.201620591843155</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03612427255867411</v>
+        <v>0.039841292409232905</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.06375114914468603</v>
+        <v>0.08592365784500226</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.23397835723516539</v>
+        <v>0.17543831642212793</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7556371027337727</v>
+        <v>0.7160208709849805</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7785140312600198</v>
+        <v>0.7620135589622715</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8912333667751289</v>
+        <v>0.8888551579964356</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.24216112271129528</v>
+        <v>0.2106260291698408</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.514958693270447</v>
+        <v>3.2019200574602</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.03605553236517696</v>
+        <v>0.039662585436472456</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06541413527118321</v>
+        <v>0.07946074696614013</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.23397835723516539</v>
+        <v>0.17363483403761293</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.71548428144794</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7620804137368057</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8892052201863772</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.21068733484013796</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.203100785883882</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03964546572778007</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.08049489334954643</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.17363483403761293</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>106.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6615987005391283</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7099373521753223</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6984862946110134</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.584293679434231</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.3962264150943398</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1437552625579175</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.6285406089405939</v>
+        <v>0.4611370047916282</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6746107786728236</v>
+        <v>0.5791436489541121</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.665288632871531</v>
+        <v>0.5354790145204934</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.5343577594239447</v>
+        <v>0.44120835834282457</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.7547169811320753</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2859039492732394</v>
+        <v>0.21300907522352916</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6514216350514029</v>
+        <v>0.5884182500792131</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.7068018613809823</v>
+        <v>0.6452729676953459</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6904774349961703</v>
+        <v>0.6284077222561495</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.587370930349982</v>
+        <v>0.4902602632570162</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.556603773584906</v>
+        <v>3.3962264150943398</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9469770317448524</v>
+        <v>1.1437552625579175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6076840312224949</v>
+        <v>0.5418670866793791</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6562435095306928</v>
+        <v>0.6025164137166704</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6411139076511024</v>
+        <v>0.5797960056667697</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5053196600985096</v>
+        <v>0.42238880689677905</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7358490566037736</v>
+        <v>3.7547169811320753</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.340233716593617</v>
+        <v>1.2859039492732394</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.6244520199937895</v>
+        <v>0.6249389051041457</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5626785950976931</v>
+        <v>0.5866022589371253</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5806024313530851</v>
+        <v>0.6023015434912409</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.48393272907943274</v>
+        <v>0.5910776400280732</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.0566037735849056</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.809131276287812</v>
+        <v>0.45260551479358196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6325766624364575</v>
+        <v>0.6677345926065125</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5686005904997492</v>
+        <v>0.612812422264612</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.587044232857771</v>
+        <v>0.6350183874436011</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4926469026240538</v>
+        <v>0.5226939654566799</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.0754716981132075</v>
+        <v>1.0566037735849056</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.8241664147536496</v>
+        <v>1.809131276287812</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.24428872405671695</v>
+        <v>0.6825294370578656</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.2339831214724824</v>
+        <v>0.6286400219017525</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.17928028066079899</v>
+        <v>0.6529763308754786</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.09541808998536523</v>
+        <v>0.5404353391341794</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.5377358490566038</v>
+        <v>1.0754716981132075</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.4221012508450257</v>
+        <v>1.8241664147536496</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.2711730274414429</v>
+        <v>0.1933933585393471</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.2629362032872098</v>
+        <v>0.2796785858197666</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.21013081842664924</v>
+        <v>0.2359146663260431</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.09607438887651555</v>
+        <v>0.1535753186626379</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.6320754716981134</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.6751714720936608</v>
+        <v>0.35020209798623747</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4788381717550523</v>
+        <v>0.294979203216486</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.44181813298317624</v>
+        <v>0.33460045349716727</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.36541199670085583</v>
+        <v>0.30377634156628713</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.33702113268836625</v>
+        <v>0.13364915883729547</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.3867924528301887</v>
+        <v>2.5377358490566038</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5465522620885042</v>
+        <v>1.4221012508450257</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6375988231314376</v>
+        <v>0.2991726143369226</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6386033376370659</v>
+        <v>0.3197980551737894</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5811759318467459</v>
+        <v>0.27633507238577465</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5348292546937755</v>
+        <v>0.10782475592164471</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2264150943396226</v>
+        <v>2.6320754716981134</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4093768894557253</v>
+        <v>1.6751714720936608</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6212525376320664</v>
+        <v>0.5408082523900493</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6298313258791869</v>
+        <v>0.4957885470183663</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6004581450301517</v>
+        <v>0.42127682919032394</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5189500190016128</v>
+        <v>0.3936041061962144</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.4622641509433962</v>
+        <v>1.3867924528301887</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3674761479726198</v>
+        <v>1.5465522620885042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>106.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6225622539397575</v>
+        <v>0.6231210167350495</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.634206523337602</v>
+        <v>0.5862900030652533</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6028367983604574</v>
+        <v>0.5253558372955853</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.523848605783132</v>
+        <v>0.5057188067056007</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2264150943396226</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4093768894557253</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>106.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6117365650640656</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5861400180299388</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.557932050726123</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.49610703192076405</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.4622641509433962</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3674761479726198</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>106.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.615468208199482</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5855487169176503</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5568637530137872</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5043687515184021</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.2358490566037736</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3277398396376476</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.32075471698113206</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4811320754716981</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.08490566037735849</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.36792452830188677</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.018867924528301886</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.02830188679245283</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.03773584905660377</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.29245283018867924</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5377358490566038</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08490566037735849</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="D46" t="n" s="111">
         <v>0.018867924528301886</v>
       </c>
-      <c r="C46" t="n" s="110">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.10377358490566038</v>
-      </c>
       <c r="E46" t="n" s="112">
-        <v>0.330188679245283</v>
+        <v>0.32075471698113206</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.04716981132075472</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.46226415094339623</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.7169811320754716</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.02830188679245283</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.08490566037735849</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.07547169811320754</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.09433962264150944</v>
+        <v>0.36792452830188677</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.7169811320754716</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.018867924528301886</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.009433962264150943</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.07547169811320754</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.08490566037735849</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.09433962264150944</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.14150943396226415</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.16037735849056603</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="D49" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.42452830188679247</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.2641509433962264</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.009433962264150943</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.14150943396226415</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.1509433962264151</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.16037735849056603</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.20754716981132076</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.16037735849056603</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.1792452830188679</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4716981132075472</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.14150943396226415</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.03773584905660377</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.22641509433962265</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.12264150943396226</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.2169811320754717</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.10377358490566038</v>
+        <v>0.16037735849056603</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05660377358490566</v>
+        <v>0.0</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4811320754716981</v>
+        <v>0.42452830188679247</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14150943396226415</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
+        <v>0.14150943396226415</v>
+      </c>
+      <c r="C53" t="n" s="110">
         <v>0.1509433962264151</v>
       </c>
-      <c r="C53" t="n" s="110">
-        <v>0.10377358490566038</v>
-      </c>
       <c r="D53" t="n" s="111">
-        <v>0.12264150943396226</v>
+        <v>0.16037735849056603</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.37735849056603776</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.24528301886792453</v>
+        <v>0.16037735849056603</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.1792452830188679</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.16981132075471697</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.10377358490566038</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.2169811320754717</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.33962264150943394</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.16981132075471697</v>
+        <v>0.12264150943396226</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.2169811320754717</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.10377358490566038</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4811320754716981</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14150943396226415</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.1509433962264151</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.10377358490566038</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.12264150943396226</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.37735849056603776</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.10377358490566038</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.2169811320754717</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8891194525759316</v>
+        <v>0.8716207247466927</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8948583433436724</v>
+        <v>0.9814967895908351</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8950963625796213</v>
+        <v>0.9738318410223114</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6802807942476363</v>
+        <v>0.9464712752851708</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>8.510978158434975</v>
+        <v>53.04467537723543</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.017138049178698902</v>
+        <v>0.004013939807411296</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6108490566037736</v>
+        <v>0.8050314465408805</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.029956187625315</v>
+        <v>1.3435071568410712</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.690909967178686</v>
+        <v>0.9428421345252543</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8546348751789828</v>
+        <v>0.9809122183997336</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8640686337263047</v>
+        <v>0.9809293364689953</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8201829146157962</v>
+        <v>0.9625724413164314</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6793725546118309</v>
+        <v>0.9625724413164316</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>6.356653783546308</v>
+        <v>51.43656039414744</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.02278434601564077</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.006206407665800315</v>
-      </c>
+        <v>0.0037062107778898985</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.708075377031706</v>
+        <v>0.9625724413164315</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8440547148875162</v>
+        <v>0.6118211990678626</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8579385330990293</v>
+        <v>0.9705802831537249</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8100944317016979</v>
+        <v>0.9428421345252543</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6681124606651988</v>
+        <v>0.9428421345252544</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>6.0392064914906705</v>
+        <v>32.9908098104831</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.0256038051537807</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.005571228585820846</v>
-      </c>
+        <v>0.013085950422725336</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.673744557325666</v>
+        <v>0.9428421345252543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8684888380080138</v>
+        <v>0.6109237063087634</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8711391298869043</v>
+        <v>0.965873435583958</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.8345991536642203</v>
+        <v>0.9339992500138263</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6926326404521217</v>
+        <v>0.9339992500138263</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>6.760307680076528</v>
+        <v>28.30268596067431</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.022276313175217624</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.009032913223319382</v>
-      </c>
+        <v>0.01415818193395642</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.708075377031706</v>
+        <v>0.9339992500138262</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.860258409224077</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8649479308115771</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8245265687413316</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6810055212613938</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>6.404551488987655</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.0223943094294811</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.00894547501297452</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.673744557325666</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>106.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9582466572835794</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9765295408227185</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9546398505293175</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9473449006662037</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.2830188679245283</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.45260551479358196</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>106.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8678366621623934</v>
+        <v>0.989389793861175</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8726818237503732</v>
+        <v>0.9832268956142016</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.828477761567565</v>
+        <v>0.9732494330987685</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7650216769236287</v>
+        <v>0.9657244208087296</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.3962264150943398</v>
+        <v>1.0566037735849056</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1437552625579175</v>
+        <v>1.809131276287812</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>106.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8944194175860207</v>
+        <v>0.9905224182268276</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8823676420610185</v>
+        <v>0.9862285689069671</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8455450819732783</v>
+        <v>0.979294699194654</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7930772499942523</v>
+        <v>0.9689150154221445</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.7547169811320753</v>
+        <v>1.0754716981132075</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2859039492732394</v>
+        <v>1.8241664147536496</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>106.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8418014589668532</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8612756327504275</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8034639926212571</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.749936540923777</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.556603773584906</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9469770317448524</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>106.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8803896500976095</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.871277162443818</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.822117355841011</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7602902504114991</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7358490566037736</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.340233716593617</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.2830188679245283</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.02830188679245283</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.08490566037735849</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.07547169811320754</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.04716981132075472</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.04716981132075472</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.018867924528301886</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.32075471698113206</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4811320754716981</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.08490566037735849</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.36792452830188677</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.02830188679245283</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.29245283018867924</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5377358490566038</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08490566037735849</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.10377358490566038</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.330188679245283</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.46226415094339623</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,28 +5873,28 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8330655317670561</v>
+        <v>0.7479461028267813</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8395628345620281</v>
+        <v>0.8736745502660044</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7234884055485764</v>
+        <v>0.8260854091585714</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7234884055485764</v>
+        <v>0.6974605220313651</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>5.232969756540721</v>
+        <v>6.916061269567663</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.03154485408861763</v>
+        <v>0.02266026213120063</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.5849056603773586</v>
+        <v>2.009433962264151</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.4383715959925416</v>
+        <v>1.0475040095841346</v>
       </c>
       <c r="I6" t="n" s="269">
         <v>0.7234884055485764</v>
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
+        <v>0.8330655317670561</v>
+      </c>
+      <c r="C11" t="n" s="289">
+        <v>0.8395628345620281</v>
+      </c>
+      <c r="D11" t="n" s="290">
         <v>0.7234884055485764</v>
-      </c>
-      <c r="C11" t="n" s="289">
-        <v>0.7234884055485764</v>
-      </c>
-      <c r="D11" t="n" s="290">
-        <v>0.5234354729632213</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.7234884055485764</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7234884055485764</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>5.232969756540721</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.03154485408861763</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7234884055485764</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.5234354729632213</v>
+        <v>0.4086115992970123</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7234884055485764</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.5234354729632213</v>
-      </c>
+        <v>0.7811917753804802</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6409472463351222</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.6409472463351222</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>3.5702121194889984</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.03655092009044623</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7234884055485764</v>
+        <v>0.6409472463351223</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.505259203606311</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8425563650156713</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7279459142103966</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7279459142103963</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>5.351479372916767</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.03251200464794491</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7279459142103964</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>106.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9156425208719806</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9283017843213963</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7895960608158445</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7234884055485763</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.5377358490566038</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.4221012508450257</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>106.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9399675459839189</v>
+        <v>0.7825304765137956</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9283017843213963</v>
+        <v>0.8837699826651201</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7895960608158445</v>
+        <v>0.7906495446994343</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7234884055485763</v>
+        <v>0.7330891903035922</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.8584905660377359</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.35020209798623747</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>106.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9193271332471141</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9145638572316009</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8592637389316828</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.7645824495269178</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.5377358490566038</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.4221012508450257</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>106.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9318997929576296</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8821070067156774</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7863190517098906</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7398097400551917</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.6320754716981134</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.6751714720936608</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.14150943396226415</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.8584905660377359</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.14150943396226415</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.16037735849056603</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.42452830188679247</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.2641509433962264</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.009433962264150943</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.14150943396226415</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.1509433962264151</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.16037735849056603</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.20754716981132076</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.16037735849056603</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.1792452830188679</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.858506013212128</v>
+        <v>0.7456613526061936</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8587190321486844</v>
+        <v>0.8742312495463485</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7524168511855504</v>
+        <v>0.8298011824975231</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7524168511855505</v>
+        <v>0.6985258123808306</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>6.078094206237332</v>
+        <v>6.951100701827524</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.027458710513095865</v>
+        <v>0.018257651306227227</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.349056603773585</v>
+        <v>2.70125786163522</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2614613810232629</v>
+        <v>0.8151076733275796</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7524168511855504</v>
+        <v>0.6638135735659829</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7524168511855505</v>
+        <v>0.8724088390230553</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7524168511855505</v>
+        <v>0.8757774930473277</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.5661311179479787</v>
+        <v>0.7790072584663137</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7524168511855505</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7524168511855505</v>
-      </c>
+        <v>0.7790072584663137</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>7.0500709938255435</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.024362047161803606</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7524168511855505</v>
+        <v>0.7790072584663137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.5661311179479787</v>
+        <v>0.34776530211018364</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7524168511855505</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.5661311179479787</v>
-      </c>
+        <v>0.7899004645837413</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6527566051101952</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.652756605110195</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.7596487922676953</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.031659601044537376</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7524168511855505</v>
+        <v>0.6527566051101951</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3857487275649609</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7979422503967901</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6638135735659829</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6638135735659829</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.949080161309064</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.03308421940392407</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6638135735659829</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>106.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9379954126644584</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9360600544798261</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8119568859039035</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7524168511855504</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.4622641509433962</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3674761479726198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>106.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9340959511003423</v>
+        <v>0.7408557581015124</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9360600544798262</v>
+        <v>0.8638655203679364</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8119568859039035</v>
+        <v>0.7385062376822681</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7524168511855506</v>
+        <v>0.697484244504469</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.2358490566037736</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3277398396376476</v>
+        <v>0.21300907522352916</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>106.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9352065430498946</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.9109452882774934</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8562760467651803</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7971289627358378</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.3962264150943398</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1437552625579175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>106.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9470898783473696</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9068220659824499</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.848008909700039</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7954013017891023</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.7547169811320753</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2859039492732394</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.1509433962264151</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.10377358490566038</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.12264150943396226</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.37735849056603776</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.24528301886792453</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9528301886792453</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.10377358490566038</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.2169811320754717</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.33962264150943394</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.32075471698113206</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4811320754716981</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.08490566037735849</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.009433962264150943</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.04716981132075472</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.36792452830188677</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9809122183997336</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9809293364689953</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9625724413164314</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9625724413164316</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>51.43656039414744</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0037062107778898985</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.0660377358490567</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.7995706785602705</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9625724413164315</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6218589589490504</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6237061152054595</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4531780036925537</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4531780036925539</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.6574973455813886</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.07305996240332276</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.8066037735849056</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2603301810711975</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.453178003692554</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9625724413164315</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9625724413164315</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9265457047818747</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9625724413164315</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9625724413164315</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9625724413164315</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.45317800369255395</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.45317800369255395</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.2053703030307681</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.45317800369255395</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.45317800369255395</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.45317800369255395</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9265457047818747</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9625724413164315</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9265457047818747</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9625724413164315</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.2053703030307681</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.45317800369255395</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.2053703030307681</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.45317800369255395</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>106.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9905205830417392</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9905989201782</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9718842899487331</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9625724413164314</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.0566037735849056</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.809131276287812</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8669358633644526</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8524019015970561</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5738241484650686</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4531780036925539</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.3867924528301887</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5465522620885042</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>106.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9906769338130509</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9905989201782</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9718842899487331</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9625724413164315</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.0754716981132075</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.8241664147536496</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8371775856393567</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8524019015970559</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5738241484650685</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4531780036925539</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.2264150943396226</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4093768894557253</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.7169811320754716</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.02830188679245283</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.14150943396226415</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.12264150943396226</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.08490566037735849</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.7169811320754716</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.009433962264150943</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.08490566037735849</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.2169811320754717</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.10377358490566038</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4811320754716981</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14150943396226415</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6218589589490504</v>
+        <v>0.858506013212128</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6237061152054595</v>
+        <v>0.8587190321486844</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4531780036925537</v>
+        <v>0.7524168511855504</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4531780036925539</v>
+        <v>0.7524168511855505</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.6574973455813886</v>
+        <v>6.078094206237332</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.07305996240332276</v>
+        <v>0.027458710513095865</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.8066037735849056</v>
+        <v>2.349056603773585</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2603301810711975</v>
+        <v>1.2614613810232629</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.453178003692554</v>
+        <v>0.7524168511855504</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.45317800369255395</v>
+        <v>0.7524168511855505</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.45317800369255395</v>
+        <v>0.7524168511855505</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.2053703030307681</v>
+        <v>0.5661311179479787</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.45317800369255395</v>
+        <v>0.7524168511855505</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.45317800369255395</v>
+        <v>0.7524168511855505</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.45317800369255395</v>
+        <v>0.7524168511855505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.2053703030307681</v>
+        <v>0.5661311179479787</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.45317800369255395</v>
+        <v>0.7524168511855505</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.2053703030307681</v>
+        <v>0.5661311179479787</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.45317800369255395</v>
+        <v>0.7524168511855505</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>106.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8669358633644526</v>
+        <v>0.9379954126644584</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8524019015970561</v>
+        <v>0.9360600544798261</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5738241484650686</v>
+        <v>0.8119568859039035</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4531780036925539</v>
+        <v>0.7524168511855504</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.3867924528301887</v>
+        <v>2.4622641509433962</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5465522620885042</v>
+        <v>1.3674761479726198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>106.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8371775856393567</v>
+        <v>0.9340959511003423</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8524019015970559</v>
+        <v>0.9360600544798262</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5738241484650685</v>
+        <v>0.8119568859039035</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4531780036925539</v>
+        <v>0.7524168511855506</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.2264150943396226</v>
+        <v>2.2358490566037736</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4093768894557253</v>
+        <v>1.3277398396376476</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4716981132075472</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.14150943396226415</v>
+        <v>0.10377358490566038</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.03773584905660377</v>
+        <v>0.12264150943396226</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.22641509433962265</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.12264150943396226</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.2169811320754717</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="C24" t="n" s="684">
         <v>0.10377358490566038</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.05660377358490566</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4811320754716981</v>
+        <v>0.33962264150943394</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14150943396226415</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8348520210303952</v>
+        <v>0.8121276572656343</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8461186199465514</v>
+        <v>0.8415917369987451</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9187726734267434</v>
+        <v>0.9152119642217715</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.35477676963940546</v>
+        <v>0.3469516553599407</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>5.49851203344201</v>
+        <v>5.312802003214174</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02454068518240121</v>
+        <v>0.025370209156364776</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4886792452830186</v>
+        <v>1.8830188679245283</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.9028337140272216</v>
+        <v>0.813864584280071</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.3019307368954023</v>
+        <v>0.2839173522976623</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.816559513105305</v>
+        <v>0.800230686790053</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8245118936661558</v>
+        <v>0.8194422452404555</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8994280788447081</v>
+        <v>0.8954222665330706</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.3429885727116425</v>
+        <v>0.3352239603137004</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.698391879034953</v>
+        <v>4.538394079676818</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.027157743837833714</v>
+        <v>0.027894056287894008</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.038876624950940804</v>
+        <v>0.0396498788086159</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.2954668806329629</v>
+        <v>0.287358608255539</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.8200643484814386</v>
+        <v>0.777247896593321</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8289517492129937</v>
+        <v>0.8178258559777897</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8984597581703857</v>
+        <v>0.8937769668503747</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3500070288413004</v>
+        <v>0.33280220352736467</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.846303574569882</v>
+        <v>4.489253183361089</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02650898830519208</v>
+        <v>0.03035321279876509</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03631547633037695</v>
+        <v>0.039405056036467184</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.3102626181053807</v>
+        <v>0.287358608255539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.8185996697614424</v>
+        <v>0.7736525462443187</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8239207583456475</v>
+        <v>0.8158140340016155</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.9023108988357609</v>
+        <v>0.8912806886461885</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.34206972964094784</v>
+        <v>0.32982336025799674</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.679261170166911</v>
+        <v>4.429295302600692</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.027037956883092296</v>
+        <v>0.030980320290695414</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.03898186858906096</v>
+        <v>0.03929561800276923</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2954668806329629</v>
+        <v>0.287358608255539</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.8200090995410667</v>
+        <v>0.8163243020629236</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8285833523482428</v>
+        <v>0.8369210023299118</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.9009199963704119</v>
+        <v>0.9125712985619892</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3494166736721622</v>
+        <v>0.3631473524184001</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.83373910118437</v>
+        <v>5.131997463113052</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.02650700905259421</v>
+        <v>0.026052282278640298</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03657109042722109</v>
+        <v>0.050870444078563296</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.30014788988162056</v>
+        <v>0.2954668806329629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.8153538057015957</v>
+        <v>0.7966820987654321</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.828808038830873</v>
+        <v>0.8249707091646669</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.9018462567443709</v>
+        <v>0.8983700456539707</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.349776558570077</v>
+        <v>0.34370423753786117</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.841395782667985</v>
+        <v>4.713329438904007</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.0275697975257381</v>
+        <v>0.026883325816187114</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.045649811797903526</v>
+        <v>0.05248877944520947</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.2834919704645844</v>
+        <v>0.2778414213023903</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.8177621990921544</v>
+        <v>0.8041612524958007</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8306769423437728</v>
+        <v>0.8308026890498841</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.9032281674770672</v>
+        <v>0.9022556768399118</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3527913124436605</v>
+        <v>0.3529955314542097</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.905870197727454</v>
+        <v>4.910259414789567</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.027174351492643193</v>
+        <v>0.025734719772084347</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.045389144107540025</v>
+        <v>0.050456805631474054</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.3060260577409861</v>
+        <v>0.2911411975827506</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.8166975773733627</v>
+        <v>0.8029470296361361</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8342633163904128</v>
+        <v>0.8382625409437422</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8833690907326635</v>
+        <v>0.9178107174979298</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3586850935151921</v>
+        <v>0.3654312134969761</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>5.0336672498867</v>
+        <v>5.182859591309433</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.02743818867035512</v>
+        <v>0.026702032370772708</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.037819568809820646</v>
+        <v>0.05709889489951006</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.3102626181053807</v>
+        <v>0.2699937605355667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.8151801417528032</v>
+        <v>0.796296603258167</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.833270831114882</v>
+        <v>0.8330102651421376</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8823342958083155</v>
+        <v>0.9133595775870706</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.35703955928513154</v>
+        <v>0.35660939653736384</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.997750763629329</v>
+        <v>4.9883920460810085</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.027671822184723287</v>
+        <v>0.027175624788173577</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.037908792295635006</v>
+        <v>0.060078612752000465</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.3108084284578907</v>
+        <v>0.287358608255539</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8359421111566016</v>
+        <v>0.7870708395009516</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8501184262304622</v>
+        <v>0.8247481276237916</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9220149043969219</v>
+        <v>0.897553482595594</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3865839453025715</v>
+        <v>0.3433567795500713</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>5.671934213458611</v>
+        <v>4.706073130296304</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.02491723578150738</v>
+        <v>0.028366207192715813</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.03950599262530933</v>
+        <v>0.05747734937217123</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.3102626181053807</v>
+        <v>0.25803882646683984</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.8208606173994387</v>
+        <v>0.7897857689364958</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8340973993037897</v>
+        <v>0.8267007154307792</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9147943565381116</v>
+        <v>0.8993078151212555</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3584092224113691</v>
+        <v>0.3464225185054634</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>5.027633055802019</v>
+        <v>4.770364271761149</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.026782654046467087</v>
+        <v>0.027903043460762195</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04905519488703285</v>
+        <v>0.05724154469843511</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.2954668806329629</v>
+        <v>0.2719625142648044</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6619815456296756</v>
+        <v>0.7345160499883229</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7130702881989581</v>
+        <v>0.7078274271331981</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6954521481572463</v>
+        <v>0.7245197676808643</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5811842580920297</v>
+        <v>0.7072697182436305</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.3962264150943398</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1437552625579175</v>
+        <v>0.45260551479358196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6243259133717515</v>
+        <v>0.7619749870968078</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6740507496497499</v>
+        <v>0.7214058483124134</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6583445500455888</v>
+        <v>0.743447284080439</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5250294849228047</v>
+        <v>0.6401941747734914</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.7547169811320753</v>
+        <v>1.0566037735849056</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2859039492732394</v>
+        <v>1.809131276287812</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6602116843442927</v>
+        <v>0.7796478657625678</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.7181786527673621</v>
+        <v>0.7381077684914208</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6960371933724452</v>
+        <v>0.7627764980476989</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5945132459787805</v>
+        <v>0.663611513858037</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.556603773584906</v>
+        <v>1.0754716981132075</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9469770317448524</v>
+        <v>1.8241664147536496</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6271741827902761</v>
+        <v>0.42933339298142437</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6773328655245747</v>
+        <v>0.5512652236578952</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6567439171355899</v>
+        <v>0.49490672167120064</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5236344613002096</v>
+        <v>0.407626083585574</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.7358490566037736</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.340233716593617</v>
+        <v>0.21300907522352916</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6700027451692768</v>
+        <v>0.5884275992276348</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6753320632985518</v>
+        <v>0.6602798052927777</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6408533388946739</v>
+        <v>0.6372827888146076</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5726370037018812</v>
+        <v>0.48456729094960305</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.4622641509433962</v>
+        <v>3.3962264150943398</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3674761479726198</v>
+        <v>1.1437552625579175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.6473766884083486</v>
+        <v>0.534712887184158</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.6585713537046602</v>
+        <v>0.6081849364736213</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6216520147780896</v>
+        <v>0.5783619031568784</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.5487629128577699</v>
+        <v>0.4071694450271206</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.2358490566037736</v>
+        <v>3.7547169811320753</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3277398396376476</v>
+        <v>1.2859039492732394</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6971842084879258</v>
+        <v>0.5848604341511017</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.625804515318448</v>
+        <v>0.5384599626941615</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.64183140958162</v>
+        <v>0.4511200654195994</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5695902165277849</v>
+        <v>0.43767095846805554</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.0566037735849056</v>
+        <v>1.3867924528301887</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.809131276287812</v>
+        <v>1.5465522620885042</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.7083389422604794</v>
+        <v>0.6111583514232021</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6349529640852026</v>
+        <v>0.5879225457741101</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6515955394417432</v>
+        <v>0.5143566900824871</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.582834285936342</v>
+        <v>0.48417288553750265</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.0754716981132075</v>
+        <v>2.2264150943396226</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.8241664147536496</v>
+        <v>1.4093768894557253</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5133652867446896</v>
+        <v>0.6737371432507075</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.47069913278336467</v>
+        <v>0.6622279492711134</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.385625724685423</v>
+        <v>0.6278252055549531</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.37026822193713455</v>
+        <v>0.5647620974529395</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.3867924528301887</v>
+        <v>2.4622641509433962</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5465522620885042</v>
+        <v>1.3674761479726198</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>106.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.6240141447499072</v>
+        <v>0.6524109063407415</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6273382376886356</v>
+        <v>0.6450388182251232</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5586390780062449</v>
+        <v>0.6078950113015821</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.5137370008649802</v>
+        <v>0.5423814923885304</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.2264150943396226</v>
+        <v>2.2358490566037736</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4093768894557253</v>
+        <v>1.3277398396376476</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.04716981132075472</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.04716981132075472</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.018867924528301886</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.32075471698113206</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4811320754716981</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.08490566037735849</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.04716981132075472</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.009433962264150943</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.04716981132075472</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.3018867924528302</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.22641509433962265</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.36792452830188677</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="C41" t="n" s="798">
         <v>0.018867924528301886</v>
       </c>
-      <c r="C41" t="n" s="798">
-        <v>0.02830188679245283</v>
-      </c>
       <c r="D41" t="n" s="799">
-        <v>0.03773584905660377</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.29245283018867924</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5377358490566038</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08490566037735849</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.018867924528301886</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.03773584905660377</v>
+        <v>0.9528301886792453</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.10377358490566038</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.330188679245283</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.04716981132075472</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.46226415094339623</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.1509433962264151</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.10377358490566038</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.12264150943396226</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.37735849056603776</v>
+        <v>0.32075471698113206</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.24528301886792453</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.16981132075471697</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.10377358490566038</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.2169811320754717</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.33962264150943394</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.16981132075471697</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.36792452830188677</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.7169811320754716</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.02830188679245283</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.12264150943396226</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.08490566037735849</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.09433962264150944</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.7169811320754716</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.018867924528301886</v>
+        <v>0.10377358490566038</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.009433962264150943</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.07547169811320754</v>
+        <v>0.4811320754716981</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.08490566037735849</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.09433962264150944</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4716981132075472</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.14150943396226415</v>
+        <v>0.10377358490566038</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.03773584905660377</v>
+        <v>0.12264150943396226</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.22641509433962265</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.12264150943396226</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.2169811320754717</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="C48" t="n" s="798">
         <v>0.10377358490566038</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.05660377358490566</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4811320754716981</v>
+        <v>0.33962264150943394</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14150943396226415</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
